--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_e92\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\Dulles High School\10th Grade\Intro to Eng Design\Week 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{DBDA3D11-87B0-40CF-A7B9-1E0E8C2DAB61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA18BC76-E21B-45A3-AC00-843E708A4679}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B7FE9-57C7-4A5D-9D18-C1CC588BDDCA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Criteria</t>
   </si>
@@ -41,35 +39,26 @@
     <t>Totals</t>
   </si>
   <si>
-    <t>Project 9.3m Decision Matrix Template</t>
+    <t>Accommodates Globlet</t>
   </si>
   <si>
-    <t>Material Costs</t>
+    <t>Locking Mechanism</t>
   </si>
   <si>
-    <t>Development Time</t>
+    <t>Simplicity</t>
   </si>
   <si>
-    <t>Resilience</t>
+    <t>Visibility of Goblet</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Safety</t>
-  </si>
-  <si>
-    <t>Grading Scale</t>
+    <t>Fits into Flight Case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +79,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -190,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -207,23 +189,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -232,7 +213,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -573,142 +553,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
+    <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="str">
+        <f>IF(B3="","",SUM(B3:F3))</f>
+        <v/>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="1"/>
+    <row r="4" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="str">
+        <f>IF(B4="","",SUM(B4:F4))</f>
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>2</v>
+    <row r="5" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="str">
+        <f>IF(B5="","",SUM(B5:F5))</f>
+        <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8">
-        <f>IF(B5="","",SUM(B5:G5))</f>
-        <v>0</v>
+    <row r="6" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="str">
+        <f>IF(B6="","",SUM(B6:F6))</f>
+        <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8">
-        <f>IF(B6="","",SUM(B6:G6))</f>
-        <v>0</v>
+    <row r="7" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="str">
+        <f>IF(B7="","",SUM(B7:F7))</f>
+        <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8" t="str">
-        <f t="shared" ref="H5:H10" si="0">IF(B7="","",SUM(B7:G7))</f>
+    <row r="8" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7" t="str">
+        <f>IF(B8="","",SUM(B8:F8))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -716,64 +682,29 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
+    <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="A12:G12"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -974,15 +905,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CFAD1-8525-44F3-9B5B-AF5D35EB258C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a92e81bf-46be-42b7-850f-5bc2557f18d6"/>
+    <ds:schemaRef ds:uri="819cdba2-0a93-423b-affd-d757c139d046"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1007,18 +950,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CFAD1-8525-44F3-9B5B-AF5D35EB258C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a92e81bf-46be-42b7-850f-5bc2557f18d6"/>
-    <ds:schemaRef ds:uri="819cdba2-0a93-423b-affd-d757c139d046"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F775F2EA-018F-4CB8-9F18-6AC264B2DBAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B0E5FB-FAA0-4407-9956-FD70BCA10F01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Criteria</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve"> " x " x " Reinforced Glass Display Case joined with Loctite glass glue with an indented styrofoam base to hold the goblet in place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5'' x 12.625" x (?)" clear polycarbonate display case joined with Metal L brackets using screws with a custom molded Ballistics gel container. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5" x 12.625" x (?)" clear polycarbonate windows held together with a birch wood highlight and wood glue. The goblet is held with a small pedstal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5" x 12.625" x (?)" clear polycarbonate windows joined by melting the edges and molding it into a corner. The inside is filled with a balllistics gel that is molded the goblet. </t>
   </si>
 </sst>
 </file>
@@ -186,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -201,10 +210,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -225,12 +230,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -574,17 +579,17 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.3984375" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -595,125 +600,156 @@
       <c r="F1" s="11"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="30.4" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="str">
+    <row r="3" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="str">
         <f t="shared" ref="G3:G8" si="0">IF(B3="","",SUM(B3:F3))</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="str">
+    <row r="4" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="str">
+    <row r="5" spans="1:7" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7" t="str">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="str">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="str">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+    <row r="9" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="str">
+        <f t="shared" ref="G9:G11" si="1">IF(B9="","",SUM(B9:F9))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="4"/>
     </row>
   </sheetData>
@@ -732,15 +768,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A020E8315AAD34E9FA42BDA308655E6" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0d74165fff3a8387e0448407bf582f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="819cdba2-0a93-423b-affd-d757c139d046" xmlns:ns4="a92e81bf-46be-42b7-850f-5bc2557f18d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef71496d161f384ca6b394808bde426c" ns3:_="" ns4:_="">
     <xsd:import namespace="819cdba2-0a93-423b-affd-d757c139d046"/>
@@ -937,6 +964,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CFAD1-8525-44F3-9B5B-AF5D35EB258C}">
   <ds:schemaRefs>
@@ -955,14 +991,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D6F7D1-3851-4D43-8D78-2EED76C7EA23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -979,4 +1007,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\Dulles High School\10th Grade\Intro to Eng Design\Week 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B7FE9-57C7-4A5D-9D18-C1CC588BDDCA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F775F2EA-018F-4CB8-9F18-6AC264B2DBAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Criteria</t>
   </si>
@@ -52,13 +52,22 @@
   </si>
   <si>
     <t>Fits into Flight Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> " x " x " Glass Display Case joined with Loctite Glass Glue with clear elastic string to hold the goblet in place</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> " x " x" Acrylic Display Case Joined with Weld-On 4 Glue with an indented birchwood base to hold goblet in place</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> " x " x " Reinforced Glass Display Case joined with Loctite glass glue with an indented styrofoam base to hold the goblet in place</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +93,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -172,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -208,11 +222,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -556,28 +574,28 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" customWidth="1"/>
     <col min="3" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="30.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -600,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -608,11 +626,11 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7" t="str">
-        <f>IF(B3="","",SUM(B3:F3))</f>
+        <f t="shared" ref="G3:G8" si="0">IF(B3="","",SUM(B3:F3))</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -620,11 +638,11 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="str">
-        <f>IF(B4="","",SUM(B4:F4))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -632,49 +650,55 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="str">
-        <f>IF(B5="","",SUM(B5:F5))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:7" ht="60.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7" t="str">
-        <f>IF(B6="","",SUM(B6:F6))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:7" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="str">
-        <f>IF(B7="","",SUM(B7:F7))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:7" ht="57.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="str">
-        <f>IF(B8="","",SUM(B8:F8))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -683,13 +707,13 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="4"/>
     </row>
   </sheetData>
@@ -708,6 +732,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A020E8315AAD34E9FA42BDA308655E6" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0d74165fff3a8387e0448407bf582f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="819cdba2-0a93-423b-affd-d757c139d046" xmlns:ns4="a92e81bf-46be-42b7-850f-5bc2557f18d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef71496d161f384ca6b394808bde426c" ns3:_="" ns4:_="">
     <xsd:import namespace="819cdba2-0a93-423b-affd-d757c139d046"/>
@@ -904,15 +937,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CFAD1-8525-44F3-9B5B-AF5D35EB258C}">
   <ds:schemaRefs>
@@ -931,6 +955,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D6F7D1-3851-4D43-8D78-2EED76C7EA23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -947,12 +979,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B0E5FB-FAA0-4407-9956-FD70BCA10F01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F47200-1146-4BBE-AF3D-0C78C3C7494B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,15 +54,6 @@
     <t>Fits into Flight Case</t>
   </si>
   <si>
-    <t xml:space="preserve"> " x " x " Glass Display Case joined with Loctite Glass Glue with clear elastic string to hold the goblet in place</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> " x " x" Acrylic Display Case Joined with Weld-On 4 Glue with an indented birchwood base to hold goblet in place</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> " x " x " Reinforced Glass Display Case joined with Loctite glass glue with an indented styrofoam base to hold the goblet in place</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.5'' x 12.625" x (?)" clear polycarbonate display case joined with Metal L brackets using screws with a custom molded Ballistics gel container. </t>
   </si>
   <si>
@@ -70,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">10.5" x 12.625" x (?)" clear polycarbonate windows joined by melting the edges and molding it into a corner. The inside is filled with a balllistics gel that is molded the goblet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.5" x 12.625" x (?)" Reinforced Glass Display Case joined with Loctite glass glue with an indented styrofoam base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.5" x 12.625" x (?)" Glass Display Case joined with Loctite Glass Glue with clear elastic string to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.5" x 12.625" x (?)" Acrylic Display Case Joined with Weld-On 4 Glue with an indented birchwood base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
   </si>
 </sst>
 </file>
@@ -578,18 +578,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.46484375" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" customWidth="1"/>
     <col min="3" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -600,7 +600,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="30.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -623,9 +623,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -637,9 +637,9 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -651,9 +651,9 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -665,9 +665,9 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -679,9 +679,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -693,9 +693,9 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -707,7 +707,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -719,7 +719,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -731,7 +731,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -743,7 +743,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -768,6 +768,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A020E8315AAD34E9FA42BDA308655E6" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0d74165fff3a8387e0448407bf582f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="819cdba2-0a93-423b-affd-d757c139d046" xmlns:ns4="a92e81bf-46be-42b7-850f-5bc2557f18d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef71496d161f384ca6b394808bde426c" ns3:_="" ns4:_="">
     <xsd:import namespace="819cdba2-0a93-423b-affd-d757c139d046"/>
@@ -964,15 +973,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CFAD1-8525-44F3-9B5B-AF5D35EB258C}">
   <ds:schemaRefs>
@@ -991,6 +991,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D6F7D1-3851-4D43-8D78-2EED76C7EA23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1007,12 +1015,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F47200-1146-4BBE-AF3D-0C78C3C7494B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A1DCE7-99F2-48A6-8187-8DC6CBEAB6C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -627,84 +627,128 @@
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="str">
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G8" si="0">IF(B3="","",SUM(B3:F3))</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="str">
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
-        <v/>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="str">
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6" t="str">
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6" t="str">
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="str">
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
@@ -768,15 +812,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A020E8315AAD34E9FA42BDA308655E6" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0d74165fff3a8387e0448407bf582f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="819cdba2-0a93-423b-affd-d757c139d046" xmlns:ns4="a92e81bf-46be-42b7-850f-5bc2557f18d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef71496d161f384ca6b394808bde426c" ns3:_="" ns4:_="">
     <xsd:import namespace="819cdba2-0a93-423b-affd-d757c139d046"/>
@@ -973,6 +1008,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CFAD1-8525-44F3-9B5B-AF5D35EB258C}">
   <ds:schemaRefs>
@@ -991,14 +1035,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D6F7D1-3851-4D43-8D78-2EED76C7EA23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1015,4 +1051,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A1DCE7-99F2-48A6-8187-8DC6CBEAB6C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98DF452-3D29-4E30-B84C-8B1CED0823B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Container" sheetId="1" r:id="rId1"/>
+    <sheet name="Lock" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Criteria</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Accommodates Globlet</t>
   </si>
   <si>
-    <t>Locking Mechanism</t>
-  </si>
-  <si>
     <t>Simplicity</t>
   </si>
   <si>
@@ -70,6 +68,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 10.5" x 12.625" x (?)" Acrylic Display Case Joined with Weld-On 4 Glue with an indented birchwood base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
+  </si>
+  <si>
+    <t>Locks Effectively</t>
+  </si>
+  <si>
+    <t>Combination Lock</t>
+  </si>
+  <si>
+    <t>A bending Plastic latch</t>
+  </si>
+  <si>
+    <t>Lock and Key</t>
   </si>
 </sst>
 </file>
@@ -576,20 +586,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.46484375" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
-    <col min="3" max="7" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -597,10 +607,9 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="30.4" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -616,192 +625,274 @@
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
       <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G8" si="0">IF(B3="","",SUM(B3:F3))</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6">
+        <f>IF(B3="","",SUM(B3:E3))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <f>IF(B4="","",SUM(B4:E4))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
       <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <f>IF(B5="","",SUM(B5:E5))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
       <c r="D6" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <f>IF(B6="","",SUM(B6:E6))</f>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <f>IF(B7="","",SUM(B7:E7))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <f>IF(B8="","",SUM(B8:E8))</f>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6" t="str">
-        <f t="shared" ref="G9:G11" si="1">IF(B9="","",SUM(B9:F9))</f>
+      <c r="F9" s="6" t="str">
+        <f>IF(B9="","",SUM(B9:E9))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F10" s="6" t="str">
+        <f>IF(B10="","",SUM(B10:E10))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F11" s="6" t="str">
+        <f>IF(B11="","",SUM(B11:E11))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643CA9CE-1FC4-404E-AE47-07FEB94D6E39}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -812,6 +903,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A020E8315AAD34E9FA42BDA308655E6" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0d74165fff3a8387e0448407bf582f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="819cdba2-0a93-423b-affd-d757c139d046" xmlns:ns4="a92e81bf-46be-42b7-850f-5bc2557f18d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef71496d161f384ca6b394808bde426c" ns3:_="" ns4:_="">
     <xsd:import namespace="819cdba2-0a93-423b-affd-d757c139d046"/>
@@ -1008,15 +1108,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CFAD1-8525-44F3-9B5B-AF5D35EB258C}">
   <ds:schemaRefs>
@@ -1035,6 +1126,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D6F7D1-3851-4D43-8D78-2EED76C7EA23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1051,12 +1150,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A1DCE7-99F2-48A6-8187-8DC6CBEAB6C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A687C3CA-CB6C-45CC-BDDC-86A50C315F4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -634,13 +634,15 @@
       <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="5">
         <v>4</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G8" si="0">IF(B3="","",SUM(B3:F3))</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
@@ -676,13 +678,15 @@
       <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="5">
         <v>4</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">

--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A687C3CA-CB6C-45CC-BDDC-86A50C315F4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A236F99B-D8BD-45B4-AC93-474C02DB8161}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A236F99B-D8BD-45B4-AC93-474C02DB8161}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98DF452-3D29-4E30-B84C-8B1CED0823B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Container" sheetId="1" r:id="rId1"/>
+    <sheet name="Lock" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Criteria</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Accommodates Globlet</t>
   </si>
   <si>
-    <t>Locking Mechanism</t>
-  </si>
-  <si>
     <t>Simplicity</t>
   </si>
   <si>
@@ -70,6 +68,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 10.5" x 12.625" x (?)" Acrylic Display Case Joined with Weld-On 4 Glue with an indented birchwood base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
+  </si>
+  <si>
+    <t>Locks Effectively</t>
+  </si>
+  <si>
+    <t>Combination Lock</t>
+  </si>
+  <si>
+    <t>A bending Plastic latch</t>
+  </si>
+  <si>
+    <t>Lock and Key</t>
   </si>
 </sst>
 </file>
@@ -576,20 +586,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.46484375" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
-    <col min="3" max="7" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -597,10 +607,9 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="30.4" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -616,196 +625,274 @@
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
       <c r="D3" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="5">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G8" si="0">IF(B3="","",SUM(B3:F3))</f>
+      <c r="F3" s="6">
+        <f>IF(B3="","",SUM(B3:E3))</f>
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <f>IF(B4="","",SUM(B4:E4))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
       <c r="D5" s="5">
         <v>4</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="0"/>
+      <c r="F5" s="6">
+        <f>IF(B5="","",SUM(B5:E5))</f>
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
       <c r="D6" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <f>IF(B6="","",SUM(B6:E6))</f>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <f>IF(B7="","",SUM(B7:E7))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <f>IF(B8="","",SUM(B8:E8))</f>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6" t="str">
-        <f t="shared" ref="G9:G11" si="1">IF(B9="","",SUM(B9:F9))</f>
+      <c r="F9" s="6" t="str">
+        <f>IF(B9="","",SUM(B9:E9))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F10" s="6" t="str">
+        <f>IF(B10="","",SUM(B10:E10))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F11" s="6" t="str">
+        <f>IF(B11="","",SUM(B11:E11))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643CA9CE-1FC4-404E-AE47-07FEB94D6E39}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -816,6 +903,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A020E8315AAD34E9FA42BDA308655E6" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0d74165fff3a8387e0448407bf582f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="819cdba2-0a93-423b-affd-d757c139d046" xmlns:ns4="a92e81bf-46be-42b7-850f-5bc2557f18d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef71496d161f384ca6b394808bde426c" ns3:_="" ns4:_="">
     <xsd:import namespace="819cdba2-0a93-423b-affd-d757c139d046"/>
@@ -1012,15 +1108,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CFAD1-8525-44F3-9B5B-AF5D35EB258C}">
   <ds:schemaRefs>
@@ -1039,6 +1126,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D6F7D1-3851-4D43-8D78-2EED76C7EA23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1055,12 +1150,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C9D09A-7E92-4980-96F8-30E8C2204395}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C623F077-EB3E-419A-BA34-3B159BCB8C31}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Container" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Criteria</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 10.5" x 12.625" x 5.25" Reinforced Glass Display Case joined with Loctite glass glue with an indented styrofoam base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
+  </si>
+  <si>
+    <t>Metal Latch</t>
   </si>
 </sst>
 </file>
@@ -588,18 +591,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -609,7 +612,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="30.4" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -629,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -650,7 +653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -671,7 +674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -692,7 +695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -713,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
@@ -734,7 +737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="89.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -755,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -774,20 +777,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643CA9CE-1FC4-404E-AE47-07FEB94D6E39}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -797,7 +800,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="30.4" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -817,7 +820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
@@ -831,13 +834,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -845,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
         <v>4</v>
@@ -857,7 +860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
@@ -871,10 +874,30 @@
         <v>3</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="6">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -892,6 +915,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A020E8315AAD34E9FA42BDA308655E6" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0d74165fff3a8387e0448407bf582f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="819cdba2-0a93-423b-affd-d757c139d046" xmlns:ns4="a92e81bf-46be-42b7-850f-5bc2557f18d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef71496d161f384ca6b394808bde426c" ns3:_="" ns4:_="">
     <xsd:import namespace="819cdba2-0a93-423b-affd-d757c139d046"/>
@@ -1088,15 +1120,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CFAD1-8525-44F3-9B5B-AF5D35EB258C}">
   <ds:schemaRefs>
@@ -1115,6 +1138,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D6F7D1-3851-4D43-8D78-2EED76C7EA23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1131,12 +1162,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98DF452-3D29-4E30-B84C-8B1CED0823B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E31BD5-584C-4A66-90F7-CCBA5A041724}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Container" sheetId="1" r:id="rId1"/>
@@ -588,18 +588,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -609,7 +609,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="30.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -646,11 +646,11 @@
         <v>4</v>
       </c>
       <c r="F3" s="6">
-        <f>IF(B3="","",SUM(B3:E3))</f>
+        <f t="shared" ref="F3:F8" si="0">IF(B3="","",SUM(B3:E3))</f>
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
         <v>4</v>
@@ -667,11 +667,11 @@
         <v>4</v>
       </c>
       <c r="F4" s="6">
-        <f>IF(B4="","",SUM(B4:E4))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -688,11 +688,11 @@
         <v>4</v>
       </c>
       <c r="F5" s="6">
-        <f>IF(B5="","",SUM(B5:E5))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -709,11 +709,11 @@
         <v>4</v>
       </c>
       <c r="F6" s="6">
-        <f>IF(B6="","",SUM(B6:E6))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -730,11 +730,11 @@
         <v>4</v>
       </c>
       <c r="F7" s="6">
-        <f>IF(B7="","",SUM(B7:E7))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="89.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -751,44 +751,11 @@
         <v>4</v>
       </c>
       <c r="F8" s="6">
-        <f>IF(B8="","",SUM(B8:E8))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6" t="str">
-        <f>IF(B9="","",SUM(B9:E9))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6" t="str">
-        <f>IF(B10="","",SUM(B10:E10))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6" t="str">
-        <f>IF(B11="","",SUM(B11:E11))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -807,20 +774,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643CA9CE-1FC4-404E-AE47-07FEB94D6E39}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -830,7 +797,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="30.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -850,43 +817,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -903,15 +892,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A020E8315AAD34E9FA42BDA308655E6" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0d74165fff3a8387e0448407bf582f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="819cdba2-0a93-423b-affd-d757c139d046" xmlns:ns4="a92e81bf-46be-42b7-850f-5bc2557f18d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef71496d161f384ca6b394808bde426c" ns3:_="" ns4:_="">
     <xsd:import namespace="819cdba2-0a93-423b-affd-d757c139d046"/>
@@ -1108,6 +1088,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CFAD1-8525-44F3-9B5B-AF5D35EB258C}">
   <ds:schemaRefs>
@@ -1126,14 +1115,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D6F7D1-3851-4D43-8D78-2EED76C7EA23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1150,4 +1131,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E31BD5-584C-4A66-90F7-CCBA5A041724}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B5C7CA-EBDA-474C-BE80-E19145A73991}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,24 +52,6 @@
     <t>Fits into Flight Case</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5'' x 12.625" x (?)" clear polycarbonate display case joined with Metal L brackets using screws with a custom molded Ballistics gel container. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5" x 12.625" x (?)" clear polycarbonate windows held together with a birch wood highlight and wood glue. The goblet is held with a small pedstal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5" x 12.625" x (?)" clear polycarbonate windows joined by melting the edges and molding it into a corner. The inside is filled with a balllistics gel that is molded the goblet. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.5" x 12.625" x (?)" Reinforced Glass Display Case joined with Loctite glass glue with an indented styrofoam base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.5" x 12.625" x (?)" Glass Display Case joined with Loctite Glass Glue with clear elastic string to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.5" x 12.625" x (?)" Acrylic Display Case Joined with Weld-On 4 Glue with an indented birchwood base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
-  </si>
-  <si>
     <t>Locks Effectively</t>
   </si>
   <si>
@@ -80,6 +62,24 @@
   </si>
   <si>
     <t>Lock and Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5'' x 12.625" x 5.25" clear polycarbonate display case joined with Metal L brackets using screws with a custom molded Ballistics gel container. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5" x 12.625" x 5.25" clear polycarbonate windows held together with a birch wood highlight and wood glue. The goblet is held with a small pedstal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5" x 12.625" x 5.25" clear polycarbonate windows joined by melting the edges and molding it into a corner. The inside is filled with a balllistics gel that is molded the goblet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.5" x 12.625" x 5.25" Acrylic Display Case Joined with Weld-On 4 Glue with an indented birchwood base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.5" x 12.625" x 5.25" Glass Display Case joined with Loctite Glass Glue with clear elastic string to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.5" x 12.625" x 5.25" Reinforced Glass Display Case joined with Loctite glass glue with an indented styrofoam base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -631,7 +631,7 @@
     </row>
     <row r="3" spans="1:6" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5">
         <v>3</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="4" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="5" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="6" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="7" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="8" spans="1:6" ht="89.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5">
         <v>3</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="4" spans="1:6" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>

--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B5C7CA-EBDA-474C-BE80-E19145A73991}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C9D09A-7E92-4980-96F8-30E8C2204395}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5">
         <v>4</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
@@ -676,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="F5" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">

--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C9D09A-7E92-4980-96F8-30E8C2204395}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D198F4C8-E705-4B5A-BADF-0EA516310171}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,22 +64,22 @@
     <t>Lock and Key</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5'' x 12.625" x 5.25" clear polycarbonate display case joined with Metal L brackets using screws with a custom molded Ballistics gel container. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5" x 12.625" x 5.25" clear polycarbonate windows held together with a birch wood highlight and wood glue. The goblet is held with a small pedstal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5" x 12.625" x 5.25" clear polycarbonate windows joined by melting the edges and molding it into a corner. The inside is filled with a balllistics gel that is molded the goblet. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.5" x 12.625" x 5.25" Acrylic Display Case Joined with Weld-On 4 Glue with an indented birchwood base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.5" x 12.625" x 5.25" Glass Display Case joined with Loctite Glass Glue with clear elastic string to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.5" x 12.625" x 5.25" Reinforced Glass Display Case joined with Loctite glass glue with an indented styrofoam base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
+    <t xml:space="preserve">10.5'' x 12.625" x 10.5" clear polycarbonate display case joined with Metal L brackets using screws with a custom molded Ballistics gel container. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5" x 12.625" x 10.5" clear polycarbonate windows held together with a birch wood highlight and wood glue. The goblet is held with a small pedstal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5" x 12.625" x 10.5" clear polycarbonate windows joined by melting the edges and molding it into a corner. The inside is filled with a balllistics gel that is molded the goblet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.5" x 12.625" x 10.5" Acrylic Display Case Joined with Weld-On 4 Glue with an indented birchwood base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.5" x 12.625" x 10.5" Glass Display Case joined with Loctite Glass Glue with clear elastic string to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.5" x 12.625" x 10.5" Reinforced Glass Display Case joined with Loctite glass glue with an indented styrofoam base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
   </si>
 </sst>
 </file>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Decision Matrix.xlsx
+++ b/Decision Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D198F4C8-E705-4B5A-BADF-0EA516310171}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0942CA5-A9CE-41DB-84F3-C1F7D835CCC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="3144" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Container" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Criteria</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 10.5" x 12.625" x 10.5" Reinforced Glass Display Case joined with Loctite glass glue with an indented styrofoam base to hold the goblet in place. Brass hinges, lock, and key on the openable side.</t>
+  </si>
+  <si>
+    <t>Metal Latch</t>
   </si>
 </sst>
 </file>
@@ -588,18 +591,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -609,7 +612,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="30.4" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -629,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -650,7 +653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -671,7 +674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -692,7 +695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -713,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
@@ -734,7 +737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="89.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -755,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -774,20 +777,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643CA9CE-1FC4-404E-AE47-07FEB94D6E39}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -797,7 +800,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="30.4" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -817,7 +820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
@@ -837,7 +840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -857,7 +860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
@@ -875,6 +878,26 @@
       </c>
       <c r="F5" s="6">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -886,9 +909,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1089,27 +1115,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CFAD1-8525-44F3-9B5B-AF5D35EB258C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a92e81bf-46be-42b7-850f-5bc2557f18d6"/>
-    <ds:schemaRef ds:uri="819cdba2-0a93-423b-affd-d757c139d046"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1134,9 +1148,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C6998D-D942-42DC-B5F7-064C41DCF277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CFAD1-8525-44F3-9B5B-AF5D35EB258C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a92e81bf-46be-42b7-850f-5bc2557f18d6"/>
+    <ds:schemaRef ds:uri="819cdba2-0a93-423b-affd-d757c139d046"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>